--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435837.6103155498</v>
+        <v>434001.7427404645</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937636</v>
+        <v>16636980.42967733</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129929</v>
+        <v>2069122.084925924</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6691216.103680536</v>
+        <v>7345252.126379903</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>422.8019618924207</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -713,19 +715,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>76.62027363057864</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>39.57637241135512</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>103.3456594571958</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>253.8159699232736</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>83.10034679241278</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1057,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.62703520776621</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>95.46948504263807</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1145,7 +1147,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>59.82063420043769</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>60.94899222869572</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>92.36216076663985</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>99.82364316220807</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>39.59754480244054</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1607,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>371.2252808304753</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598885</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>308.1202115605</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>107.6897798763023</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3083,7 +3085,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,10 +3243,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3430,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>47.61404849749811</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6379250432762</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.2666242787484</v>
+        <v>159.0870598415703</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3989,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4034,16 +4036,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>28.192061969695</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4195,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.583628727544</v>
+        <v>1598.869320833164</v>
       </c>
       <c r="C2" t="n">
-        <v>778.4411559109678</v>
+        <v>1598.869320833164</v>
       </c>
       <c r="D2" t="n">
-        <v>342.5313710854123</v>
+        <v>1598.869320833164</v>
       </c>
       <c r="E2" t="n">
-        <v>342.5313710854123</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
         <v>342.5313710854123</v>
@@ -4334,13 +4336,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4361,19 +4363,19 @@
         <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.119422805321</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W2" t="n">
-        <v>1702.263968216354</v>
+        <v>1598.869320833164</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.869752427891</v>
+        <v>1598.869320833164</v>
       </c>
       <c r="Y2" t="n">
-        <v>1216.583628727544</v>
+        <v>1598.869320833164</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>73.33088177303142</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>397.8892067392438</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>1008.286808612828</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>835.7250970960532</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>669.8471042975759</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870976</v>
+        <v>500.0891005483132</v>
       </c>
       <c r="F4" t="n">
-        <v>193.303390838254</v>
+        <v>323.3820465100694</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>157.790771535897</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1200.105427331815</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>481.2686461194209</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C5" t="n">
-        <v>481.2686461194209</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D5" t="n">
-        <v>481.2686461194209</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194209</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862857</v>
@@ -4568,22 +4570,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>518.386598053036</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1179.226652594814</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1840.066707136593</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2500.906761678372</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678372</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U5" t="n">
-        <v>2502.469208380505</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V5" t="n">
-        <v>2139.852258314331</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1734.996803725364</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X5" t="n">
-        <v>1315.854340304675</v>
+        <v>1409.011883134621</v>
       </c>
       <c r="Y5" t="n">
-        <v>907.5682166043287</v>
+        <v>1000.725759434275</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612186</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>420.5753386802025</v>
       </c>
       <c r="F7" t="n">
-        <v>56.57247054885377</v>
+        <v>243.8682846419587</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862857</v>
+        <v>78.27700966778636</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862857</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>1011.477214236518</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194209</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
         <v>53.40121652862857</v>
@@ -4808,22 +4810,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4835,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2609.635943400683</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2609.635943400683</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2609.635943400683</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>2190.493479979994</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.8972536055599</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>855.8710292644067</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>689.9930364659294</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>520.2350327166666</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>343.5279786784229</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862857</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1840.553702090735</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.527297677026</v>
+        <v>1693.062784852648</v>
       </c>
       <c r="X10" t="n">
-        <v>1323.135543010439</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y10" t="n">
-        <v>1095.715872324547</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1846.062908421772</v>
+        <v>1769.953970925867</v>
       </c>
       <c r="C11" t="n">
-        <v>1846.062908421772</v>
+        <v>1769.953970925867</v>
       </c>
       <c r="D11" t="n">
-        <v>1410.153123596217</v>
+        <v>1334.044186100311</v>
       </c>
       <c r="E11" t="n">
-        <v>976.3783787545117</v>
+        <v>900.2694412586061</v>
       </c>
       <c r="F11" t="n">
-        <v>548.5109491637195</v>
+        <v>472.4020116678138</v>
       </c>
       <c r="G11" t="n">
-        <v>147.1131177869834</v>
+        <v>71.00418029107772</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148856</v>
+        <v>71.00418029107772</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821772</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>505.8420783711356</v>
       </c>
       <c r="K11" t="n">
-        <v>488.6559039815464</v>
+        <v>1340.192370329313</v>
       </c>
       <c r="L11" t="n">
-        <v>488.6559039815464</v>
+        <v>1340.192370329313</v>
       </c>
       <c r="M11" t="n">
-        <v>488.6559039815464</v>
+        <v>1340.192370329313</v>
       </c>
       <c r="N11" t="n">
-        <v>632.7278666362199</v>
+        <v>2154.560885118895</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>2154.560885118895</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>2982.870759952291</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>3529.369545910886</v>
       </c>
       <c r="R11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910886</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910886</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910886</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910886</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>3428.537583120777</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>3023.68212853181</v>
       </c>
       <c r="X11" t="n">
-        <v>1846.062908421772</v>
+        <v>2604.539665111121</v>
       </c>
       <c r="Y11" t="n">
-        <v>1846.062908421772</v>
+        <v>2196.253541410774</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>559.5729615199214</v>
+        <v>576.7591359095105</v>
       </c>
       <c r="C12" t="n">
-        <v>453.1165003565636</v>
+        <v>470.3026747461528</v>
       </c>
       <c r="D12" t="n">
-        <v>358.0262115031169</v>
+        <v>375.212385892706</v>
       </c>
       <c r="E12" t="n">
-        <v>263.9057968300706</v>
+        <v>281.0919712196597</v>
       </c>
       <c r="F12" t="n">
-        <v>180.5219584462322</v>
+        <v>197.7081328358213</v>
       </c>
       <c r="G12" t="n">
-        <v>95.13686871241609</v>
+        <v>112.3230431020052</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821772</v>
       </c>
       <c r="I12" t="n">
-        <v>79.46488968908616</v>
+        <v>70.58739091821772</v>
       </c>
       <c r="J12" t="n">
-        <v>79.46488968908616</v>
+        <v>70.58739091821772</v>
       </c>
       <c r="K12" t="n">
-        <v>740.3049442308646</v>
+        <v>70.58739091821772</v>
       </c>
       <c r="L12" t="n">
-        <v>740.3049442308646</v>
+        <v>202.396473057667</v>
       </c>
       <c r="M12" t="n">
-        <v>740.3049442308646</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="N12" t="n">
-        <v>740.3049442308646</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="O12" t="n">
-        <v>740.3049442308646</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="P12" t="n">
-        <v>1175.902039375362</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="R12" t="n">
-        <v>1716.640978007438</v>
+        <v>1733.827152397027</v>
       </c>
       <c r="S12" t="n">
-        <v>1653.185540455821</v>
+        <v>1670.37171484541</v>
       </c>
       <c r="T12" t="n">
-        <v>1523.006896786422</v>
+        <v>1540.193071176011</v>
       </c>
       <c r="U12" t="n">
-        <v>1346.67034978639</v>
+        <v>1363.85652417598</v>
       </c>
       <c r="V12" t="n">
-        <v>1147.55283184839</v>
+        <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>962.2300775815838</v>
+        <v>979.4162519711729</v>
       </c>
       <c r="X12" t="n">
-        <v>807.3626418204638</v>
+        <v>824.5488162100529</v>
       </c>
       <c r="Y12" t="n">
-        <v>680.8768625996845</v>
+        <v>698.0630369892737</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516127</v>
+        <v>921.0834279951489</v>
       </c>
       <c r="C13" t="n">
-        <v>701.4797126491475</v>
+        <v>748.5217164783738</v>
       </c>
       <c r="D13" t="n">
-        <v>535.6017198506702</v>
+        <v>582.6437236798965</v>
       </c>
       <c r="E13" t="n">
-        <v>535.6017198506702</v>
+        <v>412.8857199306339</v>
       </c>
       <c r="F13" t="n">
-        <v>358.8946658124264</v>
+        <v>236.1786658923901</v>
       </c>
       <c r="G13" t="n">
-        <v>193.303390838254</v>
+        <v>70.58739091821772</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821772</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821772</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933184</v>
+        <v>157.1670760829076</v>
       </c>
       <c r="K13" t="n">
-        <v>414.739356264454</v>
+        <v>431.9255306540431</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>850.1354124220042</v>
       </c>
       <c r="M13" t="n">
-        <v>1292.433105213328</v>
+        <v>1309.619279602917</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2154.361157596754</v>
+        <v>2171.547331986343</v>
       </c>
       <c r="P13" t="n">
-        <v>2501.868051567096</v>
+        <v>2519.054225956685</v>
       </c>
       <c r="Q13" t="n">
-        <v>2670.060826431428</v>
+        <v>2687.247000821017</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2665.829179526389</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434797</v>
+        <v>2665.829179526389</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013252</v>
+        <v>2423.128385356788</v>
       </c>
       <c r="U13" t="n">
-        <v>1965.089189266357</v>
+        <v>2144.695384609893</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136788</v>
+        <v>1857.739876480324</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.107276723079</v>
+        <v>1585.713472066615</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056492</v>
+        <v>1340.321717400028</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705998</v>
+        <v>1112.902046714136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>428.7930370433828</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>428.7930370433828</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>428.7930370433828</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>53.81800590148856</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>53.81800590148856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148856</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1462.721985931055</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2123.562040472834</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2449.993599304467</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2449.993599304467</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2087.376649238293</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>1682.521194649327</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1263.378731228637</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>855.0926075282906</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862857</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K15" t="n">
-        <v>714.241271070407</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L15" t="n">
-        <v>714.241271070407</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M15" t="n">
-        <v>714.241271070407</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N15" t="n">
-        <v>714.241271070407</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O15" t="n">
-        <v>1055.800923465659</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P15" t="n">
-        <v>1716.640978007438</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1716.640978007438</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>903.8972536055599</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C16" t="n">
-        <v>731.3355420887848</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="D16" t="n">
-        <v>565.4575492903075</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>395.6995455410447</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9924915028009</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.821657388744</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.942210967199</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.509210220304</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.553702090735</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.527297677026</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1323.135543010439</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.715872324547</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1172.213421425801</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1172.213421425801</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1172.213421425801</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1172.213421425801</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>744.3459918350084</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>342.9481604582723</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1293.567921177998</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1293.567921177998</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>1293.567921177998</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>1954.407975719777</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365255</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355599</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>1172.213421425801</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>404.0232146552985</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L18" t="n">
-        <v>404.0232146552985</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M18" t="n">
-        <v>404.0232146552985</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N18" t="n">
-        <v>404.0232146552985</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O18" t="n">
-        <v>404.0232146552985</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.1364226482442</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>749.5747111314691</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>583.6967183329918</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>413.9387145837291</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>237.2316605454853</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>71.64038557131298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2145.748379262989</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1858.792871133419</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1586.766466719711</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1341.374712053123</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.955041367231</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>811.7546776883914</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577831</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>228.5247761102221</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1303.584742363081</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2460.632577573632</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3586.363561010079</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6661,10 +6663,10 @@
         <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6682,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6710,25 +6712,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
         <v>4550.100609912873</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,22 +6940,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7078,13 +7080,13 @@
         <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7160,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N38" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7357,13 +7359,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
         <v>2117.975449367836</v>
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
@@ -7409,52 +7411,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2837.977298779172</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>875.8255515988633</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C43" t="n">
-        <v>703.2638400820882</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D43" t="n">
-        <v>537.3858472836109</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>367.6278435343481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7591,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2078.642592532902</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1640.500119716325</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1204.590334890769</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>770.8155900490646</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>342.9481604582723</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>342.9481604582723</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862857</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>714.241271070407</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>1375.081325612186</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N44" t="n">
-        <v>2035.921380153964</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2670.060826431428</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2670.060826431428</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2366.341725488304</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2107.119422805321</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2078.642592532902</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2078.642592532902</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2078.642592532902</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2078.642592532902</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1512.992809943912</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>1406.536348780555</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>1311.446059927108</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>1217.325645254062</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>1133.941806870223</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>1048.556717136407</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>1006.82106495262</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>1032.884738113077</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>1357.443063079289</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.888048337089</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>2670.060826431428</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>2606.605388879811</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>2476.426745210413</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>2300.090198210381</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>2100.972680272381</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1915.649926005575</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>1760.782490244455</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>1634.296711023675</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1132.45937714051</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>959.8976656237352</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>794.0196728252579</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>624.2616690759952</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>447.5546150377514</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>281.963340063579</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539536</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862891</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933188</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644543</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324155</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434797</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013252</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136788</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1678.133681136788</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1551.697666545389</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1324.277995859497</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7984,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047208</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8052,17 +8054,17 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434632</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>667.5152066078571</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261573</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>145.5272350047208</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,25 +8458,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>145.5272350047206</v>
+        <v>822.5944593834156</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>133.1404870095448</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>882.3423864777214</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>439.9970658025226</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>316.3899266744752</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.5152066078571</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>145.5272350047208</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078572</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10586,25 +10588,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11139,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078571</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078572</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O44" t="n">
-        <v>640.544895229762</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22547,19 +22549,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>6.635035500867048</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>338.3307651559037</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22714,13 +22716,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>135.3636110865062</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>35.15749310933346</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>168.2206048567851</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22793,16 +22795,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>173.5297328637405</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22945,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>113.876117358763</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>336.0812019346619</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23075,19 +23077,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>196.8094454557156</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23191,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>102.9863699957349</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>193.876692244576</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>259.1671374033036</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>131.2385495991668</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>58.21171656281246</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>26.33579611060398</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>96.08305090284307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>56.52943299419027</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25597,16 +25599,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>122.4480280049976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.63380825304887</v>
+        <v>30.81337269022691</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>330.7987185958168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>456729.824713609</v>
+        <v>456729.8247136089</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456729.8247136089</v>
+        <v>456729.824713609</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456729.8247136089</v>
+        <v>456729.824713609</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456729.8247136089</v>
+        <v>546353.0542744452</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>456729.8247136089</v>
+        <v>711525.172161702</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456729.824713609</v>
+        <v>711525.1721617018</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>711525.172161702</v>
+        <v>711525.1721617017</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>711525.1721617018</v>
+        <v>711525.1721617017</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>456729.8247136089</v>
+        <v>711525.1721617018</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="C2" t="n">
         <v>143731.2720946097</v>
       </c>
       <c r="D2" t="n">
-        <v>143731.2720946097</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="E2" t="n">
-        <v>143731.2720946097</v>
+        <v>171935.3877379961</v>
       </c>
       <c r="F2" t="n">
-        <v>143731.2720946097</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="G2" t="n">
-        <v>143731.2720946098</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="H2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="I2" t="n">
         <v>223914.4732583748</v>
@@ -26338,7 +26340,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="K2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="L2" t="n">
         <v>223914.4732583748</v>
@@ -26353,7 +26355,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="P2" t="n">
-        <v>143731.2720946098</v>
+        <v>223914.4732583748</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64142.66971118435</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>113440.834364902</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53535.79253228967</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>96971.03661968665</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>9144.033827297713</v>
       </c>
       <c r="D4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="E4" t="n">
-        <v>9144.033827297713</v>
+        <v>10938.35028852253</v>
       </c>
       <c r="F4" t="n">
-        <v>9144.033827297713</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>9144.033827297713</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26457,7 +26459,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>9144.033827297713</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>53646.41709784546</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163324.9848784905</v>
+        <v>-163324.9848784906</v>
       </c>
       <c r="C6" t="n">
         <v>60374.71370555431</v>
       </c>
       <c r="D6" t="n">
-        <v>60374.71370555431</v>
+        <v>60374.71370555434</v>
       </c>
       <c r="E6" t="n">
-        <v>94002.31370555432</v>
+        <v>43207.9506404438</v>
       </c>
       <c r="F6" t="n">
-        <v>94002.31370555432</v>
+        <v>18510.19471718767</v>
       </c>
       <c r="G6" t="n">
-        <v>94002.31370555435</v>
+        <v>131951.0290820897</v>
       </c>
       <c r="H6" t="n">
-        <v>-32833.5486959859</v>
+        <v>131951.0290820897</v>
       </c>
       <c r="I6" t="n">
         <v>131951.0290820896</v>
       </c>
       <c r="J6" t="n">
-        <v>-42700.31963561656</v>
+        <v>-42700.31963561657</v>
       </c>
       <c r="K6" t="n">
         <v>131951.0290820896</v>
@@ -26552,16 +26554,16 @@
         <v>131951.0290820896</v>
       </c>
       <c r="M6" t="n">
+        <v>78415.23654979991</v>
+      </c>
+      <c r="N6" t="n">
+        <v>34979.99246240294</v>
+      </c>
+      <c r="O6" t="n">
         <v>131951.0290820896</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>131951.0290820896</v>
-      </c>
-      <c r="O6" t="n">
-        <v>131951.0290820897</v>
-      </c>
-      <c r="P6" t="n">
-        <v>94002.31370555435</v>
       </c>
     </row>
   </sheetData>
@@ -26796,13 +26798,13 @@
         <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>882.3423864777214</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27018,16 +27020,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>214.8271798698643</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>395.9181169070239</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768883</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698643</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070239</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698643</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070239</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768883</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,16 +34704,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047208</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34772,17 +34774,17 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434632</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>667.5152066078571</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261573</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>145.5272350047208</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35176,25 +35178,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>145.5272350047206</v>
+        <v>822.5944593834156</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>133.1404870095448</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>882.3423864777214</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>439.9970658025226</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>316.3899266744752</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.5152066078571</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,28 +35886,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>145.5272350047208</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078572</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,25 +37308,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37859,22 +37861,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078571</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078572</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O44" t="n">
-        <v>640.544895229762</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434001.7427404645</v>
+        <v>431879.6036194092</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2069122.084925924</v>
+        <v>2069122.084925923</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7345252.126379903</v>
+        <v>7345252.126379905</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>422.8019618924207</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -676,7 +676,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>142.7266608659943</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>186.7535668023725</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -834,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>103.3456594571958</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>253.8159699232736</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>45.91568880648644</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>24.62703520776621</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>389.2797911800943</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>59.82063420043769</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>60.94899222869572</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1350,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>100.2362646413448</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>99.82364316220807</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225758</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>137.8834167598885</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>18.05677735225717</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>159.0870598415703</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1598.869320833164</v>
+        <v>1756.718735138289</v>
       </c>
       <c r="C2" t="n">
-        <v>1598.869320833164</v>
+        <v>1318.576262321712</v>
       </c>
       <c r="D2" t="n">
-        <v>1598.869320833164</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.796632052941</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4345,13 +4345,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2442.24060830618</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.341725488304</v>
+        <v>2183.018305623197</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.72477542213</v>
+        <v>2183.018305623197</v>
       </c>
       <c r="W2" t="n">
-        <v>1598.869320833164</v>
+        <v>2183.018305623197</v>
       </c>
       <c r="X2" t="n">
-        <v>1598.869320833164</v>
+        <v>2183.018305623197</v>
       </c>
       <c r="Y2" t="n">
-        <v>1598.869320833164</v>
+        <v>2183.018305623197</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1008.286808612828</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>835.7250970960532</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>669.8471042975759</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>500.0891005483132</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>323.3820465100694</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>157.790771535897</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X4" t="n">
-        <v>1427.525098017707</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>1200.105427331815</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>744.3459918350084</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>744.3459918350084</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>744.3459918350084</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>744.3459918350084</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X5" t="n">
-        <v>1409.011883134621</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000.725759434275</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462403</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294652</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>590.3333424294652</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>420.5753386802025</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>243.8682846419587</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>78.27700966778636</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729424</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431415</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.133343351119</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652275</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.493479979994</v>
+        <v>1137.141112745072</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.351007163417</v>
+        <v>1137.141112745072</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.441222337862</v>
+        <v>1137.141112745072</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2609.635943400683</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2609.635943400683</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.635943400683</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="X8" t="n">
-        <v>2190.493479979994</v>
+        <v>1545.427236445419</v>
       </c>
       <c r="Y8" t="n">
-        <v>2190.493479979994</v>
+        <v>1137.141112745072</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1028.432740781182</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>855.8710292644067</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>689.9930364659294</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>520.2350327166666</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>343.5279786784229</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1965.089189266357</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1693.062784852648</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1447.671030186061</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1220.251359500169</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1769.953970925867</v>
+        <v>1769.537181553007</v>
       </c>
       <c r="C11" t="n">
-        <v>1769.953970925867</v>
+        <v>1769.537181553007</v>
       </c>
       <c r="D11" t="n">
-        <v>1334.044186100311</v>
+        <v>1333.627396727451</v>
       </c>
       <c r="E11" t="n">
-        <v>900.2694412586061</v>
+        <v>899.8526518857461</v>
       </c>
       <c r="F11" t="n">
-        <v>472.4020116678138</v>
+        <v>471.9852222949539</v>
       </c>
       <c r="G11" t="n">
-        <v>71.00418029107772</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="H11" t="n">
-        <v>71.00418029107772</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I11" t="n">
-        <v>70.58739091821772</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J11" t="n">
-        <v>505.8420783711356</v>
+        <v>505.8420783711357</v>
       </c>
       <c r="K11" t="n">
-        <v>1340.192370329313</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="L11" t="n">
-        <v>1340.192370329313</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="M11" t="n">
-        <v>1340.192370329313</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="N11" t="n">
-        <v>2154.560885118895</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="O11" t="n">
-        <v>2154.560885118895</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="P11" t="n">
-        <v>2982.870759952291</v>
+        <v>2982.870759952297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3529.369545910886</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="R11" t="n">
-        <v>3529.369545910886</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="S11" t="n">
-        <v>3529.369545910886</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="T11" t="n">
-        <v>3529.369545910886</v>
+        <v>3428.120793747917</v>
       </c>
       <c r="U11" t="n">
-        <v>3529.369545910886</v>
+        <v>3428.120793747917</v>
       </c>
       <c r="V11" t="n">
-        <v>3428.537583120777</v>
+        <v>3428.120793747917</v>
       </c>
       <c r="W11" t="n">
-        <v>3023.68212853181</v>
+        <v>3023.26533915895</v>
       </c>
       <c r="X11" t="n">
-        <v>2604.539665111121</v>
+        <v>2604.122875738261</v>
       </c>
       <c r="Y11" t="n">
-        <v>2196.253541410774</v>
+        <v>2195.836752037914</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7591359095105</v>
+        <v>576.7591359095106</v>
       </c>
       <c r="C12" t="n">
-        <v>470.3026747461528</v>
+        <v>470.3026747461529</v>
       </c>
       <c r="D12" t="n">
-        <v>375.212385892706</v>
+        <v>375.2123858927062</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0919712196597</v>
+        <v>281.0919712196599</v>
       </c>
       <c r="F12" t="n">
-        <v>197.7081328358213</v>
+        <v>197.7081328358215</v>
       </c>
       <c r="G12" t="n">
-        <v>112.3230431020052</v>
+        <v>112.3230431020054</v>
       </c>
       <c r="H12" t="n">
-        <v>70.58739091821772</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I12" t="n">
-        <v>70.58739091821772</v>
+        <v>96.65106407867542</v>
       </c>
       <c r="J12" t="n">
-        <v>70.58739091821772</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="K12" t="n">
-        <v>70.58739091821772</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="L12" t="n">
-        <v>202.396473057667</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="M12" t="n">
         <v>1075.915435670611</v>
@@ -5159,13 +5159,13 @@
         <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>979.4162519711729</v>
+        <v>979.4162519711731</v>
       </c>
       <c r="X12" t="n">
-        <v>824.5488162100529</v>
+        <v>824.548816210053</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0630369892737</v>
+        <v>698.0630369892738</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>921.0834279951489</v>
+        <v>939.3225970378335</v>
       </c>
       <c r="C13" t="n">
-        <v>748.5217164783738</v>
+        <v>766.7608855210584</v>
       </c>
       <c r="D13" t="n">
-        <v>582.6437236798965</v>
+        <v>600.8828927225811</v>
       </c>
       <c r="E13" t="n">
-        <v>412.8857199306339</v>
+        <v>431.1248889733184</v>
       </c>
       <c r="F13" t="n">
-        <v>236.1786658923901</v>
+        <v>254.4178349350746</v>
       </c>
       <c r="G13" t="n">
-        <v>70.58739091821772</v>
+        <v>88.82655996090224</v>
       </c>
       <c r="H13" t="n">
-        <v>70.58739091821772</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I13" t="n">
-        <v>70.58739091821772</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1670760829076</v>
+        <v>157.1670760829077</v>
       </c>
       <c r="K13" t="n">
-        <v>431.9255306540431</v>
+        <v>431.9255306540433</v>
       </c>
       <c r="L13" t="n">
-        <v>850.1354124220042</v>
+        <v>850.1354124220043</v>
       </c>
       <c r="M13" t="n">
         <v>1309.619279602917</v>
@@ -5214,37 +5214,37 @@
         <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.547331986343</v>
+        <v>2171.547331986344</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.054225956685</v>
+        <v>2519.054225956686</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.247000821017</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="R13" t="n">
-        <v>2665.829179526389</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="S13" t="n">
-        <v>2665.829179526389</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="T13" t="n">
-        <v>2423.128385356788</v>
+        <v>2441.367554399473</v>
       </c>
       <c r="U13" t="n">
-        <v>2144.695384609893</v>
+        <v>2162.934553652578</v>
       </c>
       <c r="V13" t="n">
-        <v>1857.739876480324</v>
+        <v>1875.979045523008</v>
       </c>
       <c r="W13" t="n">
-        <v>1585.713472066615</v>
+        <v>1603.9526411093</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.321717400028</v>
+        <v>1358.560886442712</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.902046714136</v>
+        <v>1131.141215756821</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
         <v>793.2056155771595</v>
@@ -5305,25 +5305,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.1554751127505</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>982.1554751127505</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1694.563362934248</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>2820.294346370695</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5904,7 +5904,7 @@
         <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,43 +7183,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423626</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7420,43 +7420,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>842.8792965674086</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,28 +7636,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7730,19 +7730,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -8464,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>316.3899266744752</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>822.5944593834156</v>
+        <v>822.5944593834208</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
-        <v>133.1404870095448</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>882.3423864777214</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,10 +11305,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.635035500867048</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22600,16 +22600,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>75.1398939896975</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>35.15749310933346</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168.2206048567851</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.0353499799959</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>113.876117358763</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23023,22 +23023,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>40.15720621319343</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>196.8094454557156</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>117.6302902143469</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>259.1671374033036</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>26.33579611060398</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.81337269022691</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456729.824713609</v>
+        <v>456729.8247136089</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456729.824713609</v>
+        <v>456729.8247136089</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546353.0542744452</v>
+        <v>546353.0542744456</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711525.172161702</v>
+        <v>711525.1721617017</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>711525.1721617017</v>
+        <v>711525.1721617018</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>711525.1721617017</v>
+        <v>711525.1721617018</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711525.1721617017</v>
+        <v>711525.1721617018</v>
       </c>
     </row>
     <row r="14">
@@ -26319,10 +26319,10 @@
         <v>143731.2720946097</v>
       </c>
       <c r="D2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="E2" t="n">
-        <v>171935.3877379961</v>
+        <v>171935.3877379964</v>
       </c>
       <c r="F2" t="n">
         <v>223914.4732583748</v>
@@ -26331,7 +26331,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="H2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="I2" t="n">
         <v>223914.4732583748</v>
@@ -26340,13 +26340,13 @@
         <v>223914.4732583748</v>
       </c>
       <c r="K2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="L2" t="n">
         <v>223914.4732583748</v>
       </c>
       <c r="M2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="N2" t="n">
         <v>223914.4732583748</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>64142.66971118435</v>
+        <v>64142.66971118481</v>
       </c>
       <c r="F3" t="n">
-        <v>113440.834364902</v>
+        <v>113440.8343649015</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53535.79253228967</v>
+        <v>53535.79253229006</v>
       </c>
       <c r="N3" t="n">
-        <v>96971.03661968665</v>
+        <v>96971.0366196863</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>9144.033827297713</v>
       </c>
       <c r="D4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="E4" t="n">
-        <v>10938.35028852253</v>
+        <v>10938.35028852254</v>
       </c>
       <c r="F4" t="n">
         <v>14245.20557049264</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53646.41709784546</v>
+        <v>53646.41709784554</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163324.9848784906</v>
+        <v>-163819.8751070718</v>
       </c>
       <c r="C6" t="n">
-        <v>60374.71370555431</v>
+        <v>59879.82347697307</v>
       </c>
       <c r="D6" t="n">
-        <v>60374.71370555434</v>
+        <v>59879.82347697307</v>
       </c>
       <c r="E6" t="n">
-        <v>43207.9506404438</v>
+        <v>42878.96697447036</v>
       </c>
       <c r="F6" t="n">
-        <v>18510.19471718767</v>
+        <v>18486.97037780544</v>
       </c>
       <c r="G6" t="n">
-        <v>131951.0290820897</v>
+        <v>131927.804742707</v>
       </c>
       <c r="H6" t="n">
-        <v>131951.0290820897</v>
+        <v>131927.8047427069</v>
       </c>
       <c r="I6" t="n">
-        <v>131951.0290820896</v>
+        <v>131927.804742707</v>
       </c>
       <c r="J6" t="n">
-        <v>-42700.31963561657</v>
+        <v>-42723.54397499918</v>
       </c>
       <c r="K6" t="n">
-        <v>131951.0290820896</v>
+        <v>131927.804742707</v>
       </c>
       <c r="L6" t="n">
-        <v>131951.0290820896</v>
+        <v>131927.804742707</v>
       </c>
       <c r="M6" t="n">
-        <v>78415.23654979991</v>
+        <v>78392.0122104169</v>
       </c>
       <c r="N6" t="n">
-        <v>34979.99246240294</v>
+        <v>34956.76812302064</v>
       </c>
       <c r="O6" t="n">
-        <v>131951.0290820896</v>
+        <v>131927.8047427071</v>
       </c>
       <c r="P6" t="n">
-        <v>131951.0290820896</v>
+        <v>131927.804742707</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>882.3423864777214</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>214.8271798698643</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="F4" t="n">
-        <v>395.9181169070239</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698643</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.9181169070239</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698643</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.9181169070239</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -35184,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>316.3899266744752</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35412,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>822.5944593834156</v>
+        <v>822.5944593834208</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
-        <v>133.1404870095448</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>882.3423864777214</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37788,10 +37788,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
